--- a/data/trans_bre/CONS_COL-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COL-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>9,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>-14,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>31,75%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 12,56</t>
+          <t>-9,65; 0,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 10,54</t>
+          <t>1,88; 13,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 2,55</t>
+          <t>3,41; 15,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 40,67</t>
+          <t>-31,75; 3,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,46; 48,48</t>
+          <t>8,48; 79,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 14,86</t>
+          <t>10,0; 56,96</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>13,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,23%</t>
+          <t>-23,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>161,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,35%</t>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,83</t>
+          <t>-5,78; -1,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 18,94</t>
+          <t>-0,88; 41,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,5; -1,96</t>
+          <t>-1,67; 3,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 11,82</t>
+          <t>-32,66; -9,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 189,09</t>
+          <t>-8,36; 650,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,01; -13,34</t>
+          <t>-11,65; 26,34</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-40,21%</t>
+          <t>-35,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-39,7%</t>
+          <t>-36,23%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,54; -2,41</t>
+          <t>-5,65; -0,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,99</t>
+          <t>-1,19; 4,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; -1,3</t>
+          <t>-7,31; -1,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-57,09; -18,88</t>
+          <t>-54,04; -10,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,21; 39,78</t>
+          <t>-13,03; 72,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,02; -16,79</t>
+          <t>-53,07; -9,33</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>11,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>-21,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>114,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,75%</t>
+          <t>8,9%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,15</t>
+          <t>-5,18; -1,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 13,04</t>
+          <t>2,28; 34,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -1,92</t>
+          <t>-0,7; 3,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 11,61</t>
+          <t>-30,12; -11,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,79; 109,73</t>
+          <t>20,72; 394,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,51; -13,72</t>
+          <t>-4,4; 21,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_COL-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COL-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,6%</t>
+          <t>-4,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 0,95</t>
+          <t>-6,92; 3,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 13,65</t>
+          <t>1,96; 13,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,75; 3,79</t>
+          <t>-25,03; 15,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,48; 79,95</t>
+          <t>7,95; 79,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-23,05%</t>
+          <t>-19,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,78; -1,53</t>
+          <t>-4,9; -0,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 41,49</t>
+          <t>-0,5; 44,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,66; -9,76</t>
+          <t>-29,58; -5,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 650,77</t>
+          <t>-4,66; 657,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-35,75%</t>
+          <t>-33,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; -0,86</t>
+          <t>-5,52; -0,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,98</t>
+          <t>-1,24; 5,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-54,04; -10,94</t>
+          <t>-53,82; -8,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 72,86</t>
+          <t>-13,01; 78,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-21,74%</t>
+          <t>-17,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,18; -1,77</t>
+          <t>-4,13; -1,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 34,43</t>
+          <t>2,65; 33,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,12; -11,74</t>
+          <t>-26,51; -7,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,72; 394,07</t>
+          <t>24,86; 397,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_COL-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COL-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9,09</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9,68</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-1,05</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,68</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>45,95%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31,75%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-4,31%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>38,53%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>31,75%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3,15; 14,34</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 15,32</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-6,92; 3,21</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 13,39</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 15,32</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>12,91; 86,87</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10,0; 56,96</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-25,03; 15,66</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>7,95; 79,82</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>10,0; 56,96</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-3,04</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13,88</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-8,44%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-19,66%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>161,73%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-2,92; 1,17</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 3,15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-4,9; -0,88</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 44,72</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 3,15</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-25,64; 13,33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-11,65; 26,34</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-29,58; -5,88</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,66; 657,06</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-11,65; 26,34</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-4,32</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-2,98</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,32</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>26,88%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-36,23%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-33,93%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>23,43%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-36,23%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,94; 5,53</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-7,31; -1,03</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-5,52; -0,59</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 5,32</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,31; -1,03</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-9,41; 81,58</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-53,07; -9,33</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-53,82; -8,44</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-13,01; 78,54</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-53,07; -9,33</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-2,67</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,31</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>23,3%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-17,94%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>114,21%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8,9%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,84; 4,39</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 3,17</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-4,13; -1,11</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,65; 33,38</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 3,17</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>7,29; 43,69</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 21,42</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-26,51; -7,79</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>24,86; 397,1</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,4; 21,42</t>
         </is>
       </c>
     </row>
